--- a/biology/Botanique/Odette_Joyeux_(rose)/Odette_Joyeux_(rose).xlsx
+++ b/biology/Botanique/Odette_Joyeux_(rose)/Odette_Joyeux_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Odette Joyeux' est un cultivar de rosier hybride de thé obtenu en 1959 par le rosiériste français Marcel Robichon, installé à Pithiviers[1]. Il est dédié à la ballerine et actrice française Odette Joyeux (1914-2000). 
+'Odette Joyeux' est un cultivar de rosier hybride de thé obtenu en 1959 par le rosiériste français Marcel Robichon, installé à Pithiviers. Il est dédié à la ballerine et actrice française Odette Joyeux (1914-2000). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Odette Joyeux' est un sarmenteux très florifère. Il peut s'élever de 300 cm à 400 cm[2]. Ses grandes fleurs doubles sont roses à nuance lilas et très parfumées[3]. La floraison est remontante. Il est très vigoureux. Sa zone de rusticité est de 6b à 9b[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Odette Joyeux' est un sarmenteux très florifère. Il peut s'élever de 300 cm à 400 cm. Ses grandes fleurs doubles sont roses à nuance lilas et très parfumées. La floraison est remontante. Il est très vigoureux. Sa zone de rusticité est de 6b à 9b. 
 Ce rosier est issu du croisement du pollen 'Lady Sylvia' (Stevens, 1933) avec un semis non nommé.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par croisement avec 'Madame Moisans', ce rosier a donné naissance à 'Aurore Sand' (Robichon, 1964)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par croisement avec 'Madame Moisans', ce rosier a donné naissance à 'Aurore Sand' (Robichon, 1964).
 </t>
         </is>
       </c>
